--- a/Input/ground_truth_rule_semantic.xlsx
+++ b/Input/ground_truth_rule_semantic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulan\Dropbox\Shared_IoT_Project_Kulani\AGENIOT\AgenIoT\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C58B66-34DF-4661-8454-3F047FDEB880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC834B74-7A91-42FC-9D0F-6E7B9FF66463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13A0E790-AAE4-4C6D-A1DB-C4B164858CA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="477">
   <si>
     <t>app_name</t>
   </si>
@@ -1220,9 +1220,6 @@
     <t>[IF humiditySensor.relativeHumidityMeasurement.humidity &gt; 30, THEN switch.switch.on() and phone.notification.deviceNotification(" ")] [IF humiditySensor.relativeHumidityMeasurement.humidity &lt; 60, THEN switch.switch.off()and phone.notification.deviceNotification(" ")]</t>
   </si>
   <si>
-    <t>[IF device.relativeHumidityMeasurement.humidity &lt; 30, THEN phone.notification.deviceNotification(" ")] [IF device.relativeHumidityMeasurement.humidity &gt; 60 THEN phone.notification.deviceNotification(" ")]</t>
-  </si>
-  <si>
     <t>[IF waterSensor.waterSensor.water == "wet", THEN device.valve.close()]</t>
   </si>
   <si>
@@ -1235,27 +1232,18 @@
     <t>[IF device.illuminanceMeasurement.illuminance &gt; 50  and "11.00 am"&lt; now.time &lt;"12.00 pm", THEN device.windowShade.close()]</t>
   </si>
   <si>
-    <t>[IF presenceSensor.presenceSensor.presence=="present" and "sunset" &lt;= now.time, THEN lights.switch.on()]</t>
-  </si>
-  <si>
     <t>[IF device.powerMeter.power &gt; 100, THEN phone.notification.deviceNotification(" ")]</t>
   </si>
   <si>
     <t>[IF door1.contactSensor.contact=="open", THEN wait("5 minutes") and [IF door1.contactSensor.contact=="open", THEN phone.notification.deviceNotification(" ")]]</t>
   </si>
   <si>
-    <t>[IF door.contactSensor.contact == "open" or window.contactSensor.contact == "open", THEN wait("x minutes") and [IF door.contactSensor.contact == "open" or window.contactSensor.contact == "open", THEN phone.notification.deviceNotification(" ")]]</t>
-  </si>
-  <si>
     <t>[IF door.lock.lock == "unlocked", THEN wait("5 minutes")  and [IF door.lock.lock == "unlocked" and IF door.contact.contact == "closed", THEN door.lock.lock()]]</t>
   </si>
   <si>
     <t>[IF motionSensor.motionSensor.motion == "active" and device.illuminanceMeasurement.illuminance &lt; 50, THEN light.switch.on()]</t>
   </si>
   <si>
-    <t>[IF motionSensor.motionSensor.motion == "inactive" and presenceSensor.presenceSensor.presence == "not present", THEN wait("x minutes") and [[IF motionSensor.motionSensor.motion == "inactive" and presenceSensor.presenceSensor.presence == "not present", THEN lights.switch.off()]]</t>
-  </si>
-  <si>
     <t>[IF door.contactSensor.contact=="closed" or window.contactSensor.contact=="closed", THEN device.switch.on()]</t>
   </si>
   <si>
@@ -1289,9 +1277,6 @@
     <t>[IF motionSensor.motionSensor.motion == "inactive", THEN  wait("2 minutes") and [IF motionSensor.motionSensor.motion == "inactive",  THEN phone.notification.deviceNotification(" ")]]</t>
   </si>
   <si>
-    <t>[IF contactSensor.contactSensor.contact == "open", THEN device.switch.on() and wait("x minutes") and device.switch.off()] [IF contactSensor.contactSensor.contact == "closed", THEN device.switch.off()]</t>
-  </si>
-  <si>
     <t>[IF contactSensor.contactSensor.contact == "closed", THEN device.switch.on(), ELSE  device.switch.off()]</t>
   </si>
   <si>
@@ -1307,15 +1292,6 @@
     <t>[IF device.relativeHumidityMeasurement.humidity &gt; 50, THEN humidifier.switch.on()] [IF device.relativeHumidityMeasurement.humidity &lt;= 50, THEN humidifier.switch.off()]</t>
   </si>
   <si>
-    <t>[IF device.illuminanceMeasurement.illuminance &lt; "desired_value" and motionSensor.motionSensor.motion == "active", THEN lights.switch.on() and  wait("specified_time") and lights.switch.off()]</t>
-  </si>
-  <si>
-    <t>[IF presenceSensor.presenceSensor.presence == "present" or door.lock.lock == "unlocked" and "sunset" &lt;= now.time, THEN lights.switch.on() and wait("x minutes") and lights.switch.off()]</t>
-  </si>
-  <si>
-    <t>[IF device.illuminanceMeasurement.illuminance &lt; 50 and motionSensor.motionSensor.motion == "active", THEN lights.switch.on()] [IF device.illuminanceMeasurement.illuminance &gt;= 50 or motionSensor.motion == "inactive", THEN  wait("x minutes") and lights.switch.off()]</t>
-  </si>
-  <si>
     <t>[IF presenceSensor.presenceSensor.presence== "present", THEN  locationMode.setMode("home") and phone.notification.deviceNotification(" ")]</t>
   </si>
   <si>
@@ -1373,13 +1349,124 @@
     <t>[IF now.day == "Sun" and now.time == "9.00 am", THEN device.refrigeration.setDefrost("on")]</t>
   </si>
   <si>
-    <t>[IF presenceSensor.presenceSensor.presence == "present" and "sunset" &lt;= now.time, THEN lights.switch.on()]</t>
-  </si>
-  <si>
     <t>[IF presenceSensor.presenceSensor.presence=="present" and garageDoor.contactSensor.contact=="closed", THEN garageDoor.momentary.push() and lights.switch.on()]</t>
   </si>
   <si>
     <t>Ground_Truth_v2</t>
+  </si>
+  <si>
+    <t>[IF motionSensor.motionSensor.motion == "active", THEN light.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF button.button.button=="pushed", THEN light.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="not present", THEN garageDoor.doorControl.close()]</t>
+  </si>
+  <si>
+    <t>[IF motionSensor.motionSensor.motion == "inactive", THEN wait("1 minute") and light.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF motionSensor.motionSensor.motion == "active" and "6:00 pm"&lt;now.time&lt;"9:00 pm", THEN light.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF device1.switchLevel.level &lt; 25, THEN wait("20 seconds") and  [IFdevice1.switchLevel.level &lt; 25, THEN device2.switch.off()]]</t>
+  </si>
+  <si>
+    <t>[IF thermostat.temperatureMeasurement.temperature &lt; 72, THEN switch.switch.on(), ELSE switch.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF thermostat.temperatureMeasurement.temperature &gt; 72, THEN switch.switch.on(), ELSE switch.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF motionSensor.motionSensor.motion == "active", THEN lights.switch.on() and wait("1 minute") and [IF motionSensor.motionSensor.motion == "inactive", THEN lights.switch.off()]]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="not present", THEN switch.switch.off(), ELSE switch.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF motionSensor.motionSensor.motion == "inactive", THEN switch.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IFmotionSensor. motionSensor.motion == "active", THEN light.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF light.illuminanceMeasurement.illuminance &lt; 50, THEN light.switch.on(), ELSE light.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="not present", THEN door.lock.lock()]</t>
+  </si>
+  <si>
+    <t>[IF switch.switch.switch=="on", THEN garageDoor.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="present", THEN garageDoor.lock.unlock()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="present", THEN garageDoor.doorControl.open()]</t>
+  </si>
+  <si>
+    <t>[IF switch.switch.switch=="on" and "sunrise" &lt;= now.time &lt;= "sunsrise + 1 hour", THEN light.colorControl.setColor(desured_color)]</t>
+  </si>
+  <si>
+    <t>[IF switch.switch.switch=="on", THEN lights.switch.on()] [IF switch.switch.switch=="off", THEN lights.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF door.contactSensor.contact == "open", THEN switch.switch.on() and wait("5 minutes") and switch.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="present", THEN switch.switch.on(), ELSE switch.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="present", THEN light.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF now.time == "sunrise", THEN switch.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF now.time=="sunset", THEN switch.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="present", THEN lock.lock.unlock()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence=="present" and  now.time&gt;= "sunset", THEN lights.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence == "present" and  now.time&gt;="sunset", THEN lights.switch.on()]</t>
+  </si>
+  <si>
+    <t>[IF door.lock.lock=="unlocked" and now.time=="12:00pm", THEN door.lock.lock()]  [IF door.lock.lock=="unlocked" and door.contactSensor.contact=="closed" and now.time=="12:30pm", THEN door.lock.lock()]</t>
+  </si>
+  <si>
+    <t>[IF device.illuminanceMeasurement.illuminance &lt;50 and motionSensor.motionSensor.motion == "active", THEN lights.switch.on() and  wait("5 minutes") and lights.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF presenceSensor.presenceSensor.presence == "present" or door.lock.lock == "unlocked" and  now.time &gt;= "sunset", THEN lights.switch.on() and wait("5 minutes") and lights.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF device.illuminanceMeasurement.illuminance &lt; 50 and motionSensor.motionSensor.motion == "active", THEN lights.switch.on()] [IF device.illuminanceMeasurement.illuminance &gt;= 50 or motionSensor.motion == "inactive", THEN  wait("5 minutes") and lights.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF door.contactSensor.contact=="closed" and accelerationSensor.acceleration=="active", THEN light.switch.on() and wait("5 minutes") and light.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF door.contactSensor.contact == "open" or window.contactSensor.contact == "open", THEN wait("5 minutes") and [IF door.contactSensor.contact == "open" or window.contactSensor.contact == "open", THEN phone.notification.deviceNotification(" ")]]</t>
+  </si>
+  <si>
+    <t>[IF motionSensor.motionSensor.motion == "inactive" and presenceSensor.presenceSensor.presence == "not present", THEN wait("5 minutes") and [[IF motionSensor.motionSensor.motion == "inactive" and presenceSensor.presenceSensor.presence == "not present", THEN lights.switch.off()]]</t>
+  </si>
+  <si>
+    <t>[IF contactSensor.contactSensor.contact == "open", THEN device.switch.on() and wait("5 minutes") and device.switch.off()] [IF contactSensor.contactSensor.contact == "closed", THEN device.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF "07:00" &lt; now.time &lt; "18:00", THEN outlet.switch.on(), ELSE outlet.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF door.contactSensor.contact=="open" and “sunrise" &lt; now.time &lt; “sunset", THEN light.switch.on() and wait("5 minutes") and light.switch.off()]</t>
+  </si>
+  <si>
+    <t>[IF device.relativeHumidityMeasurement.humidity &lt; 30, THEN phone.notification.deviceNotification(" ")] [IF device.relativeHumidityMeasurement.humidity &gt; 60, THEN phone.notification.deviceNotification(" ")]</t>
   </si>
 </sst>
 </file>
@@ -1457,10 +1544,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1782,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524BA7A5-3028-4E5C-8140-2F43C668FC5D}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1931,7 +2014,7 @@
         <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1945,7 +2028,7 @@
         <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1959,7 +2042,7 @@
         <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1973,7 +2056,7 @@
         <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>380</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1987,7 +2070,7 @@
         <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2001,7 +2084,7 @@
         <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2015,7 +2098,7 @@
         <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2029,7 +2112,7 @@
         <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2043,7 +2126,7 @@
         <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2057,7 +2140,7 @@
         <v>221</v>
       </c>
       <c r="D19" t="s">
-        <v>385</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2071,7 +2154,7 @@
         <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>386</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2085,7 +2168,7 @@
         <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2099,7 +2182,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>387</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,7 +2196,7 @@
         <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2127,7 +2210,7 @@
         <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2141,7 +2224,7 @@
         <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2155,7 +2238,7 @@
         <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2169,7 +2252,7 @@
         <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2183,7 +2266,7 @@
         <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2197,7 +2280,7 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2211,7 +2294,7 @@
         <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2225,7 +2308,7 @@
         <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2239,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2253,7 +2336,7 @@
         <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2267,7 +2350,7 @@
         <v>236</v>
       </c>
       <c r="D34" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2281,7 +2364,7 @@
         <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2295,7 +2378,7 @@
         <v>238</v>
       </c>
       <c r="D36" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2309,7 +2392,7 @@
         <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2323,7 +2406,7 @@
         <v>242</v>
       </c>
       <c r="D38" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2337,7 +2420,7 @@
         <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2351,7 +2434,7 @@
         <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2365,7 +2448,7 @@
         <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2379,7 +2462,7 @@
         <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2393,7 +2476,7 @@
         <v>251</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2407,7 +2490,7 @@
         <v>254</v>
       </c>
       <c r="D44" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2421,7 +2504,7 @@
         <v>255</v>
       </c>
       <c r="D45" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2435,7 +2518,7 @@
         <v>256</v>
       </c>
       <c r="D46" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2449,7 +2532,7 @@
         <v>257</v>
       </c>
       <c r="D47" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,7 +2546,7 @@
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2477,7 +2560,7 @@
         <v>259</v>
       </c>
       <c r="D49" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2491,7 +2574,7 @@
         <v>260</v>
       </c>
       <c r="D50" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2505,7 +2588,7 @@
         <v>263</v>
       </c>
       <c r="D51" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2519,7 +2602,7 @@
         <v>266</v>
       </c>
       <c r="D52" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2533,7 +2616,7 @@
         <v>269</v>
       </c>
       <c r="D53" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,7 +2630,7 @@
         <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>417</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,7 +2644,7 @@
         <v>275</v>
       </c>
       <c r="D55" t="s">
-        <v>418</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2575,7 +2658,7 @@
         <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2589,7 +2672,7 @@
         <v>280</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2603,7 +2686,7 @@
         <v>281</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2617,7 +2700,7 @@
         <v>282</v>
       </c>
       <c r="D59" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2631,7 +2714,7 @@
         <v>283</v>
       </c>
       <c r="D60" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2645,7 +2728,7 @@
         <v>286</v>
       </c>
       <c r="D61" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2659,7 +2742,7 @@
         <v>287</v>
       </c>
       <c r="D62" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2673,7 +2756,7 @@
         <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2687,7 +2770,7 @@
         <v>288</v>
       </c>
       <c r="D64" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2701,7 +2784,7 @@
         <v>289</v>
       </c>
       <c r="D65" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2715,7 +2798,7 @@
         <v>290</v>
       </c>
       <c r="D66" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2729,7 +2812,7 @@
         <v>291</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2743,7 +2826,7 @@
         <v>292</v>
       </c>
       <c r="D68" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2757,7 +2840,7 @@
         <v>293</v>
       </c>
       <c r="D69" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,7 +2854,7 @@
         <v>294</v>
       </c>
       <c r="D70" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2785,7 +2868,7 @@
         <v>295</v>
       </c>
       <c r="D71" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2799,10 +2882,10 @@
         <v>296</v>
       </c>
       <c r="D72" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -2813,7 +2896,7 @@
         <v>297</v>
       </c>
       <c r="D73" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2827,7 +2910,7 @@
         <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2841,7 +2924,7 @@
         <v>299</v>
       </c>
       <c r="D75" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2855,7 +2938,7 @@
         <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>435</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2869,7 +2952,7 @@
         <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>164</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2883,7 +2966,7 @@
         <v>302</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2897,7 +2980,7 @@
         <v>305</v>
       </c>
       <c r="D79" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2911,7 +2994,7 @@
         <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2925,7 +3008,7 @@
         <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>439</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2939,7 +3022,7 @@
         <v>309</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2953,7 +3036,7 @@
         <v>310</v>
       </c>
       <c r="D83" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2967,7 +3050,7 @@
         <v>313</v>
       </c>
       <c r="D84" t="s">
-        <v>441</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,7 +3064,7 @@
         <v>316</v>
       </c>
       <c r="D85" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,7 +3078,7 @@
         <v>317</v>
       </c>
       <c r="D86" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3009,7 +3092,7 @@
         <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3023,7 +3106,7 @@
         <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,7 +3120,7 @@
         <v>320</v>
       </c>
       <c r="D89" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3051,7 +3134,7 @@
         <v>321</v>
       </c>
       <c r="D90" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3064,6 +3147,9 @@
       <c r="C91" t="s">
         <v>322</v>
       </c>
+      <c r="D91" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -3075,6 +3161,9 @@
       <c r="C92" t="s">
         <v>143</v>
       </c>
+      <c r="D92" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -3086,6 +3175,9 @@
       <c r="C93" t="s">
         <v>325</v>
       </c>
+      <c r="D93" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -3097,6 +3189,9 @@
       <c r="C94" t="s">
         <v>326</v>
       </c>
+      <c r="D94" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
@@ -3108,6 +3203,9 @@
       <c r="C95" t="s">
         <v>327</v>
       </c>
+      <c r="D95" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -3119,8 +3217,11 @@
       <c r="C96" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>150</v>
       </c>
@@ -3130,8 +3231,11 @@
       <c r="C97" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>152</v>
       </c>
@@ -3141,8 +3245,11 @@
       <c r="C98" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>154</v>
       </c>
@@ -3152,8 +3259,11 @@
       <c r="C99" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>332</v>
       </c>
@@ -3163,8 +3273,11 @@
       <c r="C100" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -3174,8 +3287,11 @@
       <c r="C101" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>158</v>
       </c>
@@ -3185,8 +3301,11 @@
       <c r="C102" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>160</v>
       </c>
@@ -3196,8 +3315,11 @@
       <c r="C103" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>162</v>
       </c>
@@ -3207,8 +3329,11 @@
       <c r="C104" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>338</v>
       </c>
@@ -3218,8 +3343,11 @@
       <c r="C105" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>341</v>
       </c>
@@ -3229,8 +3357,11 @@
       <c r="C106" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>344</v>
       </c>
@@ -3240,8 +3371,11 @@
       <c r="C107" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>347</v>
       </c>
@@ -3251,8 +3385,11 @@
       <c r="C108" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>350</v>
       </c>
@@ -3262,8 +3399,11 @@
       <c r="C109" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>353</v>
       </c>
@@ -3273,8 +3413,11 @@
       <c r="C110" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>165</v>
       </c>
@@ -3284,8 +3427,11 @@
       <c r="C111" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>167</v>
       </c>
@@ -3295,8 +3441,11 @@
       <c r="C112" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>169</v>
       </c>
@@ -3306,8 +3455,11 @@
       <c r="C113" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>171</v>
       </c>
@@ -3317,8 +3469,11 @@
       <c r="C114" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>173</v>
       </c>
@@ -3328,8 +3483,11 @@
       <c r="C115" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>360</v>
       </c>
@@ -3339,8 +3497,11 @@
       <c r="C116" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>176</v>
       </c>
@@ -3350,8 +3511,11 @@
       <c r="C117" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -3361,8 +3525,11 @@
       <c r="C118" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -3372,8 +3539,11 @@
       <c r="C119" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>182</v>
       </c>
@@ -3383,8 +3553,11 @@
       <c r="C120" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>184</v>
       </c>
@@ -3394,8 +3567,11 @@
       <c r="C121" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>186</v>
       </c>
@@ -3405,8 +3581,11 @@
       <c r="C122" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>188</v>
       </c>
@@ -3416,8 +3595,11 @@
       <c r="C123" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>190</v>
       </c>
@@ -3426,6 +3608,9 @@
       </c>
       <c r="C124" t="s">
         <v>370</v>
+      </c>
+      <c r="D124" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3433,5 +3618,6 @@
     <sortCondition ref="A1:A124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input/ground_truth_rule_semantic.xlsx
+++ b/Input/ground_truth_rule_semantic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulan\Dropbox\Shared_IoT_Project_Kulani\AGENIOT\AgenIoT\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulan\Dropbox\Shared_IoT_Project_Kulani\AGENIOT\GitRepo\AgenIoT\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC834B74-7A91-42FC-9D0F-6E7B9FF66463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A085E4-F08E-4CA0-93A6-323D76E820E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13A0E790-AAE4-4C6D-A1DB-C4B164858CA8}"/>
   </bookViews>
@@ -1445,9 +1445,6 @@
     <t>[IF presenceSensor.presenceSensor.presence == "present" or door.lock.lock == "unlocked" and  now.time &gt;= "sunset", THEN lights.switch.on() and wait("5 minutes") and lights.switch.off()]</t>
   </si>
   <si>
-    <t>[IF device.illuminanceMeasurement.illuminance &lt; 50 and motionSensor.motionSensor.motion == "active", THEN lights.switch.on()] [IF device.illuminanceMeasurement.illuminance &gt;= 50 or motionSensor.motion == "inactive", THEN  wait("5 minutes") and lights.switch.off()]</t>
-  </si>
-  <si>
     <t>[IF door.contactSensor.contact=="closed" and accelerationSensor.acceleration=="active", THEN light.switch.on() and wait("5 minutes") and light.switch.off()]</t>
   </si>
   <si>
@@ -1467,6 +1464,9 @@
   </si>
   <si>
     <t>[IF device.relativeHumidityMeasurement.humidity &lt; 30, THEN phone.notification.deviceNotification(" ")] [IF device.relativeHumidityMeasurement.humidity &gt; 60, THEN phone.notification.deviceNotification(" ")]</t>
+  </si>
+  <si>
+    <t>[IF device.illuminanceMeasurement.illuminance &lt; 50 and motionSensor.motionSensor.motion == "active", THEN lights.switch.on()] [IF device.illuminanceMeasurement.illuminance &gt;= 50 or motionSensor.motionSensor.motion == "inactive", THEN  wait("5 minutes") and lights.switch.off()]</t>
   </si>
 </sst>
 </file>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524BA7A5-3028-4E5C-8140-2F43C668FC5D}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2392,7 @@
         <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2560,7 +2560,7 @@
         <v>259</v>
       </c>
       <c r="D49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2700,7 +2700,7 @@
         <v>282</v>
       </c>
       <c r="D59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2910,7 +2910,7 @@
         <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2952,7 +2952,7 @@
         <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3134,7 +3134,7 @@
         <v>321</v>
       </c>
       <c r="D90" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3162,7 +3162,7 @@
         <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3330,7 +3330,7 @@
         <v>164</v>
       </c>
       <c r="D104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
